--- a/data/trans_orig/IP13_R2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP13_R2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AAF3682-87BD-4FDD-9740-7173A4FF5299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95330B5-ED04-4BED-AE05-860938E73CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7FAD7A2-B048-4AA6-AE80-AA924178D0E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76CA6BC0-6CC5-48BB-8DEA-A92931A7F953}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Menores según si limitaron su actividad por síntomas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>5,06%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>94,94%</t>
   </si>
   <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>6,12%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>7,49%</t>
   </si>
   <si>
     <t>93,88%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>92,51%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +188,55 @@
     <t>5,07%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>95,53%</t>
   </si>
   <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,103 +245,103 @@
     <t>4,02%</t>
   </si>
   <si>
-    <t>6,72%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>5,85%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>93,28%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>94,15%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF328E0-0E8A-4077-B72C-73DDD59A423D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEC6CB2-7FC9-4870-8D7C-D10ACB607AFB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1074,10 +1068,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1092,13 +1086,13 @@
         <v>163943</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>246</v>
@@ -1107,13 +1101,13 @@
         <v>151607</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>503</v>
@@ -1122,13 +1116,13 @@
         <v>315549</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,7 +1178,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1196,13 +1190,13 @@
         <v>10258</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -1211,13 +1205,13 @@
         <v>7875</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -1226,13 +1220,13 @@
         <v>18132</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,13 +1241,13 @@
         <v>192220</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>222</v>
@@ -1262,13 +1256,13 @@
         <v>168238</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>453</v>
@@ -1277,13 +1271,13 @@
         <v>360459</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,7 +1333,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1351,13 +1345,13 @@
         <v>11630</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -1366,13 +1360,13 @@
         <v>10332</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -1381,13 +1375,13 @@
         <v>21963</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,13 +1396,13 @@
         <v>277794</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -1417,13 +1411,13 @@
         <v>250301</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>654</v>
@@ -1432,13 +1426,13 @@
         <v>528094</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,13 +1500,13 @@
         <v>35530</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -1521,13 +1515,13 @@
         <v>26975</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -1536,13 +1530,13 @@
         <v>62505</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1551,13 @@
         <v>689500</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>900</v>
@@ -1572,13 +1566,13 @@
         <v>625904</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1826</v>
@@ -1587,13 +1581,13 @@
         <v>1315404</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,7 +1643,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP13_R2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP13_R2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95330B5-ED04-4BED-AE05-860938E73CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC820D14-5794-477E-9DF5-7FDB866F4D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{76CA6BC0-6CC5-48BB-8DEA-A92931A7F953}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5455ADAD-4AB1-4616-9652-7095DF75D58F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si limitaron su actividad por síntomas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,214 +134,220 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>94,93%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>96,89%</t>
+    <t>96,75%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -756,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEC6CB2-7FC9-4870-8D7C-D10ACB607AFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38768138-C8B3-4311-8E3A-E4704CBEA68A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -874,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>2961</v>
+        <v>1528</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -889,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1609</v>
+        <v>3255</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -907,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>4570</v>
+        <v>4783</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -925,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7">
-        <v>55542</v>
+        <v>55983</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -940,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I5" s="7">
-        <v>55760</v>
+        <v>58189</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -958,7 +964,7 @@
         <v>216</v>
       </c>
       <c r="N5" s="7">
-        <v>111301</v>
+        <v>114172</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -976,25 +982,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1009,7 +1015,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1029,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>10682</v>
+        <v>7017</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1044,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>7158</v>
+        <v>11115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1062,16 +1068,16 @@
         <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>17840</v>
+        <v>18132</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1080,49 +1086,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>246</v>
+      </c>
+      <c r="D8" s="7">
+        <v>152282</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
         <v>257</v>
       </c>
-      <c r="D8" s="7">
-        <v>163943</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7">
-        <v>246</v>
-      </c>
       <c r="I8" s="7">
-        <v>151607</v>
+        <v>170715</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>503</v>
       </c>
       <c r="N8" s="7">
-        <v>315549</v>
+        <v>322998</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1131,25 +1137,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174625</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181830</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1164,7 +1170,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333389</v>
+        <v>341130</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1178,55 +1184,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8203</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>10258</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
       <c r="I10" s="7">
-        <v>7875</v>
+        <v>10724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>18132</v>
+        <v>18927</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1235,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>222</v>
+      </c>
+      <c r="D11" s="7">
+        <v>164869</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>231</v>
       </c>
-      <c r="D11" s="7">
-        <v>192220</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7">
-        <v>222</v>
-      </c>
       <c r="I11" s="7">
-        <v>168238</v>
+        <v>201766</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>453</v>
       </c>
       <c r="N11" s="7">
-        <v>360459</v>
+        <v>366636</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,25 +1292,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1319,7 +1325,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1333,7 +1339,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1342,46 +1348,46 @@
         <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>11630</v>
+        <v>10110</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>10332</v>
+        <v>11459</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
       </c>
       <c r="N13" s="7">
-        <v>21963</v>
+        <v>21569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,46 +1399,46 @@
         <v>327</v>
       </c>
       <c r="D14" s="7">
-        <v>277794</v>
+        <v>265348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
       </c>
       <c r="I14" s="7">
-        <v>250301</v>
+        <v>294024</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>654</v>
       </c>
       <c r="N14" s="7">
-        <v>528094</v>
+        <v>559371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1444,7 +1450,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1459,7 +1465,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1474,7 +1480,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1494,49 +1500,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>26858</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
         <v>50</v>
       </c>
-      <c r="D16" s="7">
-        <v>35530</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7">
-        <v>42</v>
-      </c>
       <c r="I16" s="7">
-        <v>26975</v>
+        <v>36553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
       </c>
       <c r="N16" s="7">
-        <v>62505</v>
+        <v>63411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>900</v>
+      </c>
+      <c r="D17" s="7">
+        <v>638482</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
         <v>926</v>
       </c>
-      <c r="D17" s="7">
-        <v>689500</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="7">
-        <v>900</v>
-      </c>
       <c r="I17" s="7">
-        <v>625904</v>
+        <v>724695</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1826</v>
       </c>
       <c r="N17" s="7">
-        <v>1315404</v>
+        <v>1363177</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,25 +1602,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>725030</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652879</v>
+        <v>761248</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1629,7 +1635,7 @@
         <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>1377909</v>
+        <v>1426588</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1643,7 +1649,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
